--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E68E19-2DBA-4666-BB30-55CD01178916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41374426-96A5-4A10-B3E0-F45F7133DA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t xml:space="preserve">Осадка на кормовом перпендикуляре                               </t>
   </si>
   <si>
-    <t>Осадка средняя                                                  </t>
-  </si>
-  <si>
     <t>Осадка на носовом перпендикуляре                                </t>
   </si>
   <si>
@@ -761,6 +758,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Осадка в цт площади ватерлинии                                                 </t>
   </si>
 </sst>
 </file>
@@ -1281,31 +1281,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1363,7 @@
         <v>119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -1386,7 +1386,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19">
         <v>4.99</v>
@@ -1409,7 +1409,7 @@
         <v>123</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
@@ -1432,7 +1432,7 @@
         <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -1455,7 +1455,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
@@ -1478,7 +1478,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
@@ -1570,7 +1570,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="19">
         <v>55.56</v>
@@ -1593,7 +1593,7 @@
         <v>131</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
@@ -1639,7 +1639,7 @@
         <v>133</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -1662,7 +1662,7 @@
         <v>134</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
@@ -1685,7 +1685,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
@@ -1708,7 +1708,7 @@
         <v>136</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1795,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19">
         <v>10960.742</v>
@@ -1809,7 +1809,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>112</v>
@@ -1823,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>112</v>
@@ -1837,10 +1837,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="19">
         <v>5.8029999999999999</v>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>112</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>112</v>
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>112</v>
@@ -1929,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1946,7 +1946,7 @@
         <v>145</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="19">
         <v>6.3E-2</v>
@@ -1957,7 +1957,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>112</v>
@@ -1971,7 +1971,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>112</v>
@@ -1985,7 +1985,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>112</v>
@@ -1999,7 +1999,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>112</v>
@@ -2013,7 +2013,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>112</v>
@@ -2027,7 +2027,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>112</v>
@@ -2041,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>112</v>
@@ -2055,7 +2055,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>112</v>
@@ -2069,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>112</v>
@@ -2083,7 +2083,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>112</v>
@@ -2097,7 +2097,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>112</v>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>112</v>
@@ -2125,7 +2125,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>112</v>
@@ -2139,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>112</v>
@@ -2153,7 +2153,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>112</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -2175,10 +2175,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="19">
         <v>18.763000000000002</v>
@@ -2189,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -2203,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="19">
         <v>159.28200000000001</v>
@@ -2217,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>112</v>
@@ -2273,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>112</v>
@@ -2289,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>112</v>
@@ -2405,7 +2405,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -2419,7 +2419,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
@@ -2476,7 +2476,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="19">
         <v>4.99</v>
@@ -2490,7 +2490,7 @@
         <v>96</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
@@ -2504,7 +2504,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2518,7 +2518,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
@@ -2532,7 +2532,7 @@
         <v>99</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
@@ -2546,7 +2546,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
@@ -2560,7 +2560,7 @@
         <v>101</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
@@ -2574,7 +2574,7 @@
         <v>102</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
@@ -2588,7 +2588,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
@@ -2602,7 +2602,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2616,7 +2616,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2630,7 +2630,7 @@
         <v>106</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2644,7 +2644,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -2736,7 +2736,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2755,7 +2755,7 @@
         <v>168.91300000000001</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>135.66499999999999</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>71.417000000000002</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>240.21899999999999</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>84.581000000000003</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>84.578999999999994</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
         <v>109.261</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>109.261</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>280</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>390.197</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>265.702</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>265.702</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>217.238</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>217.238</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3163,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>11.227</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>11.227</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3333,7 +3333,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3731,16 +3731,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -3749,16 +3749,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB48214C-7A1F-4FA0-ADC0-624AECBBD3BF}">
   <dimension ref="A1:E296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -4145,33 +4145,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="D1" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="C2" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="10">
         <v>12</v>
@@ -4179,16 +4179,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="10">
         <v>12</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="10">
         <v>12</v>
@@ -4213,16 +4213,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="10">
         <v>12</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="10">
         <v>12</v>
@@ -4247,16 +4247,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="10">
         <v>12</v>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="10">
         <v>12</v>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" s="10">
         <v>12</v>
@@ -4298,16 +4298,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="10">
         <v>12</v>
@@ -4315,16 +4315,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="10">
         <v>12</v>
@@ -4332,16 +4332,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="10">
         <v>12</v>
@@ -4349,16 +4349,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="10">
         <v>12</v>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="10">
         <v>12</v>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="10">
         <v>12</v>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="10">
         <v>12</v>
@@ -4417,16 +4417,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="10">
         <v>12</v>
@@ -4434,16 +4434,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="10">
         <v>12</v>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="10">
         <v>12</v>
@@ -4468,16 +4468,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E20" s="10">
         <v>12</v>
@@ -4485,16 +4485,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="10">
         <v>12</v>
@@ -4502,16 +4502,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="10">
         <v>12</v>
@@ -4519,16 +4519,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="10">
         <v>12</v>
@@ -4536,16 +4536,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="10">
         <v>12</v>
@@ -4553,16 +4553,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="10">
         <v>12</v>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="10">
         <v>12</v>
@@ -4587,16 +4587,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" s="10">
         <v>12</v>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" s="10">
         <v>12</v>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" s="10">
         <v>12</v>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="10">
         <v>12</v>
@@ -4655,16 +4655,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="10">
         <v>12</v>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32" s="10">
         <v>12</v>
@@ -4689,16 +4689,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="10">
         <v>12</v>
@@ -4706,16 +4706,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E34" s="10">
         <v>12</v>
@@ -4723,16 +4723,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="10">
         <v>12</v>
@@ -4740,16 +4740,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E36" s="10">
         <v>12</v>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="10">
         <v>12</v>
@@ -4774,16 +4774,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="10">
         <v>12</v>
@@ -4791,16 +4791,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="10">
         <v>12</v>
@@ -4808,16 +4808,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="10">
         <v>12</v>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E41" s="10">
         <v>12</v>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" s="10">
         <v>12</v>
@@ -4859,16 +4859,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="10">
         <v>12</v>
@@ -4876,16 +4876,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="10">
         <v>12</v>
@@ -4893,16 +4893,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E45" s="10">
         <v>12</v>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E46" s="10">
         <v>12</v>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E47" s="10">
         <v>12</v>
@@ -4944,16 +4944,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48" s="10">
         <v>12</v>
@@ -4961,16 +4961,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49" s="10">
         <v>12</v>
@@ -4978,16 +4978,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50" s="10">
         <v>12</v>
@@ -4995,16 +4995,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" s="10">
         <v>12</v>
@@ -5012,16 +5012,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E52" s="10">
         <v>12</v>
@@ -5029,16 +5029,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E53" s="10">
         <v>12</v>
@@ -5046,16 +5046,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E54" s="10">
         <v>12</v>
@@ -5063,16 +5063,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E55" s="10">
         <v>12</v>
@@ -5080,16 +5080,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="10">
         <v>12</v>
@@ -5097,16 +5097,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="10">
         <v>12</v>
@@ -5114,16 +5114,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" s="10">
         <v>12</v>
@@ -5131,16 +5131,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="10">
         <v>12</v>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="10">
         <v>12</v>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61" s="10">
         <v>12</v>
@@ -5182,16 +5182,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" s="10">
         <v>12</v>
@@ -5199,16 +5199,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="10">
         <v>12</v>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E64" s="10">
         <v>12</v>
@@ -5233,16 +5233,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65" s="10">
         <v>12</v>
@@ -5250,16 +5250,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" s="10">
         <v>12</v>
@@ -5267,16 +5267,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67" s="10">
         <v>12</v>
@@ -5284,16 +5284,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E68" s="10">
         <v>12</v>
@@ -5301,16 +5301,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="C69" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E69" s="10">
         <v>12</v>
@@ -5318,16 +5318,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E70" s="10">
         <v>12</v>
@@ -5335,16 +5335,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E71" s="10">
         <v>12</v>
@@ -5352,16 +5352,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E72" s="10">
         <v>12</v>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E73" s="10">
         <v>12</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E74" s="10">
         <v>12</v>
@@ -5403,16 +5403,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E75" s="10">
         <v>12</v>
@@ -5420,16 +5420,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E76" s="10">
         <v>12</v>
@@ -5437,16 +5437,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" s="10">
         <v>12</v>
@@ -5454,16 +5454,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="10">
         <v>12</v>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E79" s="10">
         <v>12</v>
@@ -5488,16 +5488,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E80" s="10">
         <v>12</v>
@@ -5505,16 +5505,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E81" s="10">
         <v>12</v>
@@ -5522,16 +5522,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E82" s="10">
         <v>12</v>
@@ -5539,16 +5539,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E83" s="10">
         <v>12</v>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E84" s="10">
         <v>12</v>
@@ -5573,16 +5573,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85" s="10">
         <v>12</v>
@@ -5590,16 +5590,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E86" s="10">
         <v>12</v>
@@ -5607,16 +5607,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E87" s="10">
         <v>12</v>
@@ -5624,16 +5624,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E88" s="10">
         <v>12</v>
@@ -5641,16 +5641,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E89" s="10">
         <v>12</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E90" s="10">
         <v>12</v>
@@ -5675,16 +5675,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E91" s="10">
         <v>12</v>
@@ -5692,16 +5692,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E92" s="10">
         <v>12</v>
@@ -5709,16 +5709,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="10">
         <v>12</v>
@@ -5726,16 +5726,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E94" s="10">
         <v>12</v>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E95" s="10">
         <v>12</v>
@@ -5760,16 +5760,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" s="10">
         <v>12</v>
@@ -5777,16 +5777,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E97" s="10">
         <v>12</v>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E98" s="10">
         <v>12</v>
@@ -5811,16 +5811,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="10">
         <v>12</v>
@@ -5828,16 +5828,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E100" s="10">
         <v>12</v>
@@ -5845,16 +5845,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E101" s="10">
         <v>12</v>
@@ -5862,16 +5862,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E102" s="10">
         <v>12</v>
@@ -5879,16 +5879,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E103" s="10">
         <v>12</v>
@@ -5896,16 +5896,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E104" s="10">
         <v>12</v>
@@ -5913,16 +5913,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E105" s="10">
         <v>12</v>
@@ -5930,16 +5930,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E106" s="10">
         <v>12</v>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E107" s="10">
         <v>12</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E108" s="10">
         <v>12</v>
@@ -5981,16 +5981,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="10">
         <v>12</v>
@@ -5998,16 +5998,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E110" s="10">
         <v>12</v>
@@ -6015,16 +6015,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E111" s="10">
         <v>12</v>
@@ -6032,16 +6032,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E112" s="10">
         <v>12</v>
@@ -6049,16 +6049,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" s="10">
         <v>12</v>
@@ -6066,16 +6066,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E114" s="10">
         <v>12</v>
@@ -6083,16 +6083,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E115" s="10">
         <v>12</v>
@@ -6100,16 +6100,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E116" s="10">
         <v>12</v>
@@ -6117,16 +6117,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117" s="10">
         <v>12</v>
@@ -6134,16 +6134,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E118" s="10">
         <v>12</v>
@@ -6151,16 +6151,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E119" s="10">
         <v>12</v>
@@ -6168,16 +6168,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E120" s="10">
         <v>12</v>
@@ -6185,16 +6185,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E121" s="10">
         <v>12</v>
@@ -6202,16 +6202,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E122" s="10">
         <v>12</v>
@@ -6219,16 +6219,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E123" s="10">
         <v>12</v>
@@ -6236,16 +6236,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E124" s="10">
         <v>12</v>
@@ -6253,16 +6253,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E125" s="10">
         <v>12</v>
@@ -6270,16 +6270,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E126" s="10">
         <v>12</v>
@@ -6287,16 +6287,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E127" s="10">
         <v>12</v>
@@ -6304,16 +6304,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E128" s="10">
         <v>12</v>
@@ -6321,16 +6321,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" s="10">
         <v>12</v>
@@ -6338,16 +6338,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E130" s="10">
         <v>12</v>
@@ -6355,16 +6355,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" s="10">
         <v>12</v>
@@ -6372,16 +6372,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E132" s="10">
         <v>12</v>
@@ -6389,16 +6389,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E133" s="10">
         <v>12</v>
@@ -6406,16 +6406,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E134" s="10">
         <v>12</v>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" s="10">
         <v>12</v>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E136" s="10">
         <v>12</v>
@@ -6457,16 +6457,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E137" s="10">
         <v>12</v>
@@ -6474,16 +6474,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E138" s="10">
         <v>12</v>
@@ -6491,16 +6491,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E139" s="10">
         <v>12</v>
@@ -6508,16 +6508,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="C140" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E140" s="10">
         <v>12</v>
@@ -6525,16 +6525,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D141" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141" s="10">
         <v>12</v>
@@ -6542,16 +6542,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B142" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D142" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E142" s="10">
         <v>12</v>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B143" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D143" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E143" s="10">
         <v>12</v>
@@ -6576,16 +6576,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E144" s="10">
         <v>12</v>
@@ -6593,16 +6593,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E145" s="10">
         <v>12</v>
@@ -6610,16 +6610,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E146" s="10">
         <v>12</v>
@@ -6627,16 +6627,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C147" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D147" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E147" s="10">
         <v>12</v>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E148" s="10">
         <v>12</v>
@@ -6661,16 +6661,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E149" s="10">
         <v>12</v>
@@ -6678,16 +6678,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E150" s="10">
         <v>12</v>
@@ -6695,16 +6695,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" s="10">
         <v>12</v>
@@ -6712,16 +6712,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B152" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D152" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E152" s="10">
         <v>12</v>
@@ -6729,16 +6729,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E153" s="10">
         <v>12</v>
@@ -6746,16 +6746,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E154" s="10">
         <v>12</v>
@@ -6763,16 +6763,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E155" s="10">
         <v>12</v>
@@ -6780,16 +6780,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E156" s="10">
         <v>12</v>
@@ -6797,16 +6797,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B157" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C157" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D157" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E157" s="10">
         <v>12</v>
@@ -6814,16 +6814,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E158" s="10">
         <v>12</v>
@@ -6831,16 +6831,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E159" s="10">
         <v>12</v>
@@ -6848,16 +6848,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E160" s="10">
         <v>12</v>
@@ -6865,16 +6865,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E161" s="10">
         <v>12</v>
@@ -6882,16 +6882,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C162" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D162" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E162" s="10">
         <v>12</v>
@@ -6899,16 +6899,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E163" s="10">
         <v>12</v>
@@ -6916,16 +6916,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E164" s="10">
         <v>12</v>
@@ -6933,16 +6933,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E165" s="10">
         <v>12</v>
@@ -6950,16 +6950,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E166" s="10">
         <v>12</v>
@@ -6967,16 +6967,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B167" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C167" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D167" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E167" s="10">
         <v>12</v>
@@ -6984,16 +6984,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E168" s="10">
         <v>12</v>
@@ -7001,16 +7001,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E169" s="10">
         <v>12</v>
@@ -7018,16 +7018,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E170" s="10">
         <v>12</v>
@@ -7035,16 +7035,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E171" s="10">
         <v>12</v>
@@ -7052,16 +7052,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B172" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C172" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D172" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E172" s="10">
         <v>12</v>
@@ -7069,16 +7069,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E173" s="10">
         <v>12</v>
@@ -7086,16 +7086,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E174" s="10">
         <v>12</v>
@@ -7103,16 +7103,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E175" s="10">
         <v>12</v>
@@ -7120,16 +7120,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E176" s="10">
         <v>12</v>
@@ -7137,16 +7137,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B177" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C177" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D177" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E177" s="10">
         <v>12</v>
@@ -7154,16 +7154,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E178" s="10">
         <v>12</v>
@@ -7171,16 +7171,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E179" s="10">
         <v>12</v>
@@ -7188,16 +7188,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E180" s="10">
         <v>12</v>
@@ -7205,16 +7205,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E181" s="10">
         <v>12</v>
@@ -7222,16 +7222,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B182" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C182" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D182" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E182" s="10">
         <v>12</v>
@@ -7239,16 +7239,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E183" s="10">
         <v>12</v>
@@ -7256,16 +7256,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E184" s="10">
         <v>12</v>
@@ -7273,16 +7273,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E185" s="10">
         <v>12</v>
@@ -7290,16 +7290,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E186" s="10">
         <v>12</v>
@@ -7307,16 +7307,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C187" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D187" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E187" s="10">
         <v>12</v>
@@ -7324,16 +7324,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E188" s="10">
         <v>12</v>
@@ -7341,16 +7341,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E189" s="10">
         <v>12</v>
@@ -7358,16 +7358,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E190" s="10">
         <v>12</v>
@@ -7375,16 +7375,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E191" s="10">
         <v>12</v>
@@ -7392,16 +7392,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B192" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C192" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D192" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E192" s="10">
         <v>12</v>
@@ -7409,16 +7409,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E193" s="10">
         <v>12</v>
@@ -7426,16 +7426,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E194" s="10">
         <v>12</v>
@@ -7443,16 +7443,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E195" s="10">
         <v>12</v>
@@ -7460,16 +7460,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E196" s="10">
         <v>12</v>
@@ -7477,16 +7477,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B197" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C197" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C197" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D197" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E197" s="10">
         <v>12</v>
@@ -7494,16 +7494,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E198" s="10">
         <v>12</v>
@@ -7511,16 +7511,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E199" s="10">
         <v>12</v>
@@ -7528,16 +7528,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E200" s="10">
         <v>12</v>
@@ -7545,16 +7545,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E201" s="10">
         <v>12</v>
@@ -7562,16 +7562,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C202" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D202" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E202" s="10">
         <v>12</v>
@@ -7579,16 +7579,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E203" s="10">
         <v>12</v>
@@ -7596,16 +7596,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E204" s="10">
         <v>12</v>
@@ -7613,16 +7613,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E205" s="10">
         <v>12</v>
@@ -7630,16 +7630,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E206" s="10">
         <v>12</v>
@@ -7647,16 +7647,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E207" s="10">
         <v>12</v>
@@ -7664,16 +7664,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E208" s="10">
         <v>12</v>
@@ -7681,16 +7681,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C209" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C209" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D209" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E209" s="10">
         <v>12</v>
@@ -7698,16 +7698,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E210" s="10">
         <v>12</v>
@@ -7715,16 +7715,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C211" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D211" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E211" s="10">
         <v>12</v>
@@ -7732,16 +7732,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>219</v>
-      </c>
       <c r="D212" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E212" s="10">
         <v>12</v>
@@ -7749,16 +7749,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B213" s="25" t="s">
-        <v>215</v>
-      </c>
       <c r="C213" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E213" s="10">
         <v>12</v>
@@ -7766,16 +7766,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E214" s="10">
         <v>12</v>
@@ -7783,16 +7783,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E215" s="10">
         <v>12</v>
@@ -7800,16 +7800,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E216" s="10">
         <v>12</v>
@@ -7817,16 +7817,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E217" s="10">
         <v>12</v>
@@ -7834,16 +7834,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E218" s="10">
         <v>12</v>
@@ -7851,16 +7851,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E219" s="10">
         <v>12</v>
@@ -7868,16 +7868,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E220" s="10">
         <v>12</v>
@@ -7885,16 +7885,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E221" s="10">
         <v>12</v>
@@ -7902,16 +7902,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E222" s="10">
         <v>12</v>
@@ -7919,16 +7919,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E223" s="10">
         <v>12</v>
@@ -7936,16 +7936,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E224" s="10">
         <v>12</v>
@@ -7953,16 +7953,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E225" s="10">
         <v>12</v>
@@ -7970,16 +7970,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E226" s="10">
         <v>12</v>
@@ -7987,16 +7987,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E227" s="10">
         <v>12</v>
@@ -8004,16 +8004,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E228" s="10">
         <v>12</v>
@@ -8021,16 +8021,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E229" s="10">
         <v>12</v>
@@ -8038,16 +8038,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E230" s="10">
         <v>12</v>
@@ -8055,16 +8055,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E231" s="10">
         <v>12</v>
@@ -8072,16 +8072,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E232" s="10">
         <v>12</v>
@@ -8089,16 +8089,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E233" s="10">
         <v>12</v>
@@ -8106,16 +8106,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E234" s="10">
         <v>12</v>
@@ -8123,16 +8123,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E235" s="10">
         <v>12</v>
@@ -8140,16 +8140,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E236" s="10">
         <v>12</v>
@@ -8157,16 +8157,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E237" s="10">
         <v>12</v>
@@ -8174,16 +8174,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E238" s="10">
         <v>12</v>
@@ -8191,16 +8191,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E239" s="10">
         <v>12</v>
@@ -8208,16 +8208,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E240" s="10">
         <v>12</v>
@@ -8225,16 +8225,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E241" s="10">
         <v>12</v>
@@ -8242,16 +8242,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E242" s="10">
         <v>12</v>
@@ -8259,16 +8259,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E243" s="10">
         <v>12</v>
@@ -8276,16 +8276,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E244" s="10">
         <v>12</v>
@@ -8293,16 +8293,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E245" s="10">
         <v>12</v>
@@ -8310,16 +8310,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E246" s="10">
         <v>12</v>
@@ -8327,16 +8327,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E247" s="10">
         <v>12</v>
@@ -8344,16 +8344,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E248" s="10">
         <v>12</v>
@@ -8361,16 +8361,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E249" s="10">
         <v>12</v>
@@ -8378,16 +8378,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E250" s="10">
         <v>12</v>
@@ -8395,16 +8395,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E251" s="10">
         <v>12</v>
@@ -8412,16 +8412,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E252" s="10">
         <v>12</v>
@@ -8429,16 +8429,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E253" s="10">
         <v>12</v>
@@ -8446,16 +8446,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E254" s="10">
         <v>12</v>
@@ -8463,16 +8463,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E255" s="10">
         <v>12</v>
@@ -8480,16 +8480,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E256" s="10">
         <v>12</v>
@@ -8497,16 +8497,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E257" s="10">
         <v>12</v>
@@ -8514,16 +8514,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E258" s="10">
         <v>12</v>
@@ -8531,16 +8531,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E259" s="10">
         <v>12</v>
@@ -8548,16 +8548,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E260" s="10">
         <v>12</v>
@@ -8565,16 +8565,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E261" s="10">
         <v>12</v>
@@ -8582,16 +8582,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E262" s="10">
         <v>12</v>
@@ -8599,16 +8599,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E263" s="10">
         <v>12</v>
@@ -8616,16 +8616,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E264" s="10">
         <v>12</v>
@@ -8633,16 +8633,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E265" s="10">
         <v>12</v>
@@ -8650,16 +8650,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E266" s="10">
         <v>12</v>
@@ -8667,16 +8667,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E267" s="10">
         <v>12</v>
@@ -8684,16 +8684,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E268" s="10">
         <v>12</v>
@@ -8701,16 +8701,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E269" s="10">
         <v>12</v>
@@ -8718,16 +8718,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E270" s="10">
         <v>12</v>
@@ -8735,16 +8735,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E271" s="10">
         <v>12</v>
@@ -8752,16 +8752,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E272" s="10">
         <v>12</v>
@@ -8769,16 +8769,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E273" s="10">
         <v>12</v>
@@ -8786,16 +8786,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E274" s="10">
         <v>12</v>
@@ -8803,16 +8803,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E275" s="10">
         <v>12</v>
@@ -8820,16 +8820,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E276" s="10">
         <v>12</v>
@@ -8837,16 +8837,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E277" s="10">
         <v>12</v>
@@ -8854,16 +8854,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E278" s="10">
         <v>12</v>
@@ -8871,16 +8871,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E279" s="10">
         <v>12</v>
@@ -8888,16 +8888,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E280" s="10">
         <v>12</v>
@@ -8905,16 +8905,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E281" s="10">
         <v>12</v>
@@ -8922,16 +8922,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E282" s="10">
         <v>12</v>
@@ -8939,16 +8939,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E283" s="10">
         <v>12</v>
@@ -8956,16 +8956,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E284" s="10">
         <v>12</v>
@@ -8973,16 +8973,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E285" s="10">
         <v>12</v>
@@ -8990,16 +8990,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E286" s="10">
         <v>12</v>
@@ -9007,16 +9007,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E287" s="10">
         <v>12</v>
@@ -9024,16 +9024,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E288" s="10">
         <v>12</v>
@@ -9041,16 +9041,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E289" s="10">
         <v>12</v>
@@ -9058,16 +9058,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E290" s="10">
         <v>12</v>
@@ -9075,16 +9075,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E291" s="10">
         <v>12</v>
@@ -9092,16 +9092,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E292" s="10">
         <v>12</v>
@@ -9109,16 +9109,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E293" s="10">
         <v>12</v>
@@ -9126,16 +9126,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E294" s="10">
         <v>12</v>
@@ -9143,16 +9143,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C295" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B295" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>233</v>
-      </c>
       <c r="D295" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E295" s="10">
         <v>12</v>
@@ -9160,16 +9160,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E296" s="10">
         <v>12</v>
@@ -9226,7 +9226,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9234,7 +9234,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41374426-96A5-4A10-B3E0-F45F7133DA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710491E-A0EF-499E-86A6-541375608FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="241">
   <si>
     <t>Форпик</t>
   </si>
@@ -286,9 +286,6 @@
     <t xml:space="preserve"> №   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Наименование                                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Размерность  </t>
   </si>
   <si>
@@ -761,6 +758,18 @@
   </si>
   <si>
     <t>Осадка в цт площади ватерлинии                                                 </t>
+  </si>
+  <si>
+    <t>Погрешность относительная</t>
+  </si>
+  <si>
+    <t>Погрешность абсолютная</t>
+  </si>
+  <si>
+    <t>±0,5 % ширины судна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наименование</t>
   </si>
 </sst>
 </file>
@@ -854,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -926,6 +935,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1281,31 +1299,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1348,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1339,20 +1357,28 @@
     <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>108</v>
+      <c r="C1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,22 +1386,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1383,22 +1409,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="19">
         <v>4.99</v>
       </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,22 +1432,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1429,22 +1455,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,22 +1478,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,22 +1501,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,22 +1524,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1521,22 +1547,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,22 +1570,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1567,22 +1593,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="19">
         <v>55.56</v>
       </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1590,22 +1616,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,22 +1639,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1636,22 +1662,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,22 +1685,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,22 +1708,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,22 +1731,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,22 +1754,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>121</v>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1755,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1764,437 +1790,619 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19">
         <v>10960.742</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="19">
         <v>66.471000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="19">
         <v>66.471000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="19">
         <v>5.8029999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="19">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>52</v>
       </c>
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="D8" s="19">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19">
         <v>6.367</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="19">
         <v>6.4770000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="19">
         <v>6.2560000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="19">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="19">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="19">
         <v>18.763000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2203,13 +2411,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="19">
         <v>159.28200000000001</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2217,12 +2431,18 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2231,12 +2451,18 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2245,13 +2471,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="19">
         <v>6.5570000000000004</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2259,13 +2491,19 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="21">
         <v>0.754</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2273,15 +2511,21 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="21">
         <f>68.928/D3</f>
         <v>6.2886253503640537E-3</v>
       </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2289,28 +2533,40 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="21">
         <f>6.623/D3</f>
         <v>6.0424741317695459E-4</v>
       </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="19">
         <v>0.747</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2318,12 +2574,18 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2332,12 +2594,18 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2346,13 +2614,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,12 +2634,18 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2374,12 +2654,18 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2388,12 +2674,18 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2402,12 +2694,18 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2416,287 +2714,407 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="19">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
       <c r="C66" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="19">
         <v>63.476999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2736,7 +3154,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2755,7 +3173,7 @@
         <v>168.91300000000001</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2772,7 +3190,7 @@
         <v>135.66499999999999</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2789,7 +3207,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +3224,7 @@
         <v>71.417000000000002</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +3241,7 @@
         <v>240.21899999999999</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,7 +3258,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2857,7 +3275,7 @@
         <v>84.581000000000003</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,7 +3292,7 @@
         <v>84.578999999999994</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,7 +3309,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,7 +3326,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,7 +3343,7 @@
         <v>109.261</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,7 +3360,7 @@
         <v>109.261</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,7 +3377,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,7 +3394,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2993,7 +3411,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,7 +3428,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3445,7 @@
         <v>280</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3462,7 @@
         <v>390.197</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3479,7 @@
         <v>265.702</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3496,7 @@
         <v>265.702</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3513,7 @@
         <v>217.238</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,7 +3530,7 @@
         <v>217.238</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,7 +3547,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,7 +3564,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +3581,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3180,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,7 +3615,7 @@
         <v>11.227</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3632,7 @@
         <v>11.227</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,7 +3649,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,7 +3666,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3265,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,7 +3734,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3333,7 +3751,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,7 +3802,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,7 +3853,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3870,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,7 +3887,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,7 +3955,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,7 +4006,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,7 +4023,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +4086,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3685,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3731,16 +4149,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -3749,16 +4167,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,33 +4563,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>212</v>
-      </c>
       <c r="D1" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="C2" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="10">
         <v>12</v>
@@ -4179,16 +4597,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="10">
         <v>12</v>
@@ -4196,16 +4614,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="10">
         <v>12</v>
@@ -4213,16 +4631,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="10">
         <v>12</v>
@@ -4230,16 +4648,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="10">
         <v>12</v>
@@ -4247,16 +4665,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="10">
         <v>12</v>
@@ -4264,16 +4682,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="10">
         <v>12</v>
@@ -4281,16 +4699,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="10">
         <v>12</v>
@@ -4298,16 +4716,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="10">
         <v>12</v>
@@ -4315,16 +4733,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="10">
         <v>12</v>
@@ -4332,16 +4750,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="10">
         <v>12</v>
@@ -4349,16 +4767,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="10">
         <v>12</v>
@@ -4366,16 +4784,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="10">
         <v>12</v>
@@ -4383,16 +4801,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15" s="10">
         <v>12</v>
@@ -4400,16 +4818,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="10">
         <v>12</v>
@@ -4417,16 +4835,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="10">
         <v>12</v>
@@ -4434,16 +4852,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="10">
         <v>12</v>
@@ -4451,16 +4869,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="10">
         <v>12</v>
@@ -4468,16 +4886,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="10">
         <v>12</v>
@@ -4485,16 +4903,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="10">
         <v>12</v>
@@ -4502,16 +4920,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="10">
         <v>12</v>
@@ -4519,16 +4937,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="10">
         <v>12</v>
@@ -4536,16 +4954,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="10">
         <v>12</v>
@@ -4553,16 +4971,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="10">
         <v>12</v>
@@ -4570,16 +4988,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" s="10">
         <v>12</v>
@@ -4587,16 +5005,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" s="10">
         <v>12</v>
@@ -4604,16 +5022,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E28" s="10">
         <v>12</v>
@@ -4621,16 +5039,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="10">
         <v>12</v>
@@ -4638,16 +5056,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" s="10">
         <v>12</v>
@@ -4655,16 +5073,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" s="10">
         <v>12</v>
@@ -4672,16 +5090,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32" s="10">
         <v>12</v>
@@ -4689,16 +5107,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="10">
         <v>12</v>
@@ -4706,16 +5124,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E34" s="10">
         <v>12</v>
@@ -4723,16 +5141,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" s="10">
         <v>12</v>
@@ -4740,16 +5158,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="10">
         <v>12</v>
@@ -4757,16 +5175,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="10">
         <v>12</v>
@@ -4774,16 +5192,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="10">
         <v>12</v>
@@ -4791,16 +5209,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E39" s="10">
         <v>12</v>
@@ -4808,16 +5226,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="10">
         <v>12</v>
@@ -4825,16 +5243,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="10">
         <v>12</v>
@@ -4842,16 +5260,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E42" s="10">
         <v>12</v>
@@ -4859,16 +5277,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43" s="10">
         <v>12</v>
@@ -4876,16 +5294,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E44" s="10">
         <v>12</v>
@@ -4893,16 +5311,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" s="10">
         <v>12</v>
@@ -4910,16 +5328,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" s="10">
         <v>12</v>
@@ -4927,16 +5345,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E47" s="10">
         <v>12</v>
@@ -4944,16 +5362,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="10">
         <v>12</v>
@@ -4961,16 +5379,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="10">
         <v>12</v>
@@ -4978,16 +5396,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="10">
         <v>12</v>
@@ -4995,16 +5413,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="10">
         <v>12</v>
@@ -5012,16 +5430,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E52" s="10">
         <v>12</v>
@@ -5029,16 +5447,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="10">
         <v>12</v>
@@ -5046,16 +5464,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E54" s="10">
         <v>12</v>
@@ -5063,16 +5481,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E55" s="10">
         <v>12</v>
@@ -5080,16 +5498,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56" s="10">
         <v>12</v>
@@ -5097,16 +5515,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="10">
         <v>12</v>
@@ -5114,16 +5532,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58" s="10">
         <v>12</v>
@@ -5131,16 +5549,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="10">
         <v>12</v>
@@ -5148,16 +5566,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="10">
         <v>12</v>
@@ -5165,16 +5583,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E61" s="10">
         <v>12</v>
@@ -5182,16 +5600,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="10">
         <v>12</v>
@@ -5199,16 +5617,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E63" s="10">
         <v>12</v>
@@ -5216,16 +5634,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" s="10">
         <v>12</v>
@@ -5233,16 +5651,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="10">
         <v>12</v>
@@ -5250,16 +5668,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" s="10">
         <v>12</v>
@@ -5267,16 +5685,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67" s="10">
         <v>12</v>
@@ -5284,16 +5702,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E68" s="10">
         <v>12</v>
@@ -5301,16 +5719,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="C69" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E69" s="10">
         <v>12</v>
@@ -5318,16 +5736,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E70" s="10">
         <v>12</v>
@@ -5335,16 +5753,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E71" s="10">
         <v>12</v>
@@ -5352,16 +5770,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E72" s="10">
         <v>12</v>
@@ -5369,16 +5787,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E73" s="10">
         <v>12</v>
@@ -5386,16 +5804,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E74" s="10">
         <v>12</v>
@@ -5403,16 +5821,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E75" s="10">
         <v>12</v>
@@ -5420,16 +5838,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" s="10">
         <v>12</v>
@@ -5437,16 +5855,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="10">
         <v>12</v>
@@ -5454,16 +5872,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="10">
         <v>12</v>
@@ -5471,16 +5889,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E79" s="10">
         <v>12</v>
@@ -5488,16 +5906,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" s="10">
         <v>12</v>
@@ -5505,16 +5923,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E81" s="10">
         <v>12</v>
@@ -5522,16 +5940,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82" s="10">
         <v>12</v>
@@ -5539,16 +5957,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E83" s="10">
         <v>12</v>
@@ -5556,16 +5974,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E84" s="10">
         <v>12</v>
@@ -5573,16 +5991,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E85" s="10">
         <v>12</v>
@@ -5590,16 +6008,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E86" s="10">
         <v>12</v>
@@ -5607,16 +6025,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E87" s="10">
         <v>12</v>
@@ -5624,16 +6042,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E88" s="10">
         <v>12</v>
@@ -5641,16 +6059,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E89" s="10">
         <v>12</v>
@@ -5658,16 +6076,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E90" s="10">
         <v>12</v>
@@ -5675,16 +6093,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E91" s="10">
         <v>12</v>
@@ -5692,16 +6110,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E92" s="10">
         <v>12</v>
@@ -5709,16 +6127,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93" s="10">
         <v>12</v>
@@ -5726,16 +6144,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="10">
         <v>12</v>
@@ -5743,16 +6161,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E95" s="10">
         <v>12</v>
@@ -5760,16 +6178,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="10">
         <v>12</v>
@@ -5777,16 +6195,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E97" s="10">
         <v>12</v>
@@ -5794,16 +6212,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" s="10">
         <v>12</v>
@@ -5811,16 +6229,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="10">
         <v>12</v>
@@ -5828,16 +6246,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E100" s="10">
         <v>12</v>
@@ -5845,16 +6263,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E101" s="10">
         <v>12</v>
@@ -5862,16 +6280,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="10">
         <v>12</v>
@@ -5879,16 +6297,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E103" s="10">
         <v>12</v>
@@ -5896,16 +6314,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E104" s="10">
         <v>12</v>
@@ -5913,16 +6331,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E105" s="10">
         <v>12</v>
@@ -5930,16 +6348,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" s="10">
         <v>12</v>
@@ -5947,16 +6365,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="10">
         <v>12</v>
@@ -5964,16 +6382,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="10">
         <v>12</v>
@@ -5981,16 +6399,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" s="10">
         <v>12</v>
@@ -5998,16 +6416,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" s="10">
         <v>12</v>
@@ -6015,16 +6433,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E111" s="10">
         <v>12</v>
@@ -6032,16 +6450,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E112" s="10">
         <v>12</v>
@@ -6049,16 +6467,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E113" s="10">
         <v>12</v>
@@ -6066,16 +6484,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E114" s="10">
         <v>12</v>
@@ -6083,16 +6501,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E115" s="10">
         <v>12</v>
@@ -6100,16 +6518,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" s="10">
         <v>12</v>
@@ -6117,16 +6535,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E117" s="10">
         <v>12</v>
@@ -6134,16 +6552,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" s="10">
         <v>12</v>
@@ -6151,16 +6569,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" s="10">
         <v>12</v>
@@ -6168,16 +6586,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E120" s="10">
         <v>12</v>
@@ -6185,16 +6603,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E121" s="10">
         <v>12</v>
@@ -6202,16 +6620,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E122" s="10">
         <v>12</v>
@@ -6219,16 +6637,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E123" s="10">
         <v>12</v>
@@ -6236,16 +6654,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E124" s="10">
         <v>12</v>
@@ -6253,16 +6671,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E125" s="10">
         <v>12</v>
@@ -6270,16 +6688,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E126" s="10">
         <v>12</v>
@@ -6287,16 +6705,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E127" s="10">
         <v>12</v>
@@ -6304,16 +6722,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E128" s="10">
         <v>12</v>
@@ -6321,16 +6739,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E129" s="10">
         <v>12</v>
@@ -6338,16 +6756,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130" s="10">
         <v>12</v>
@@ -6355,16 +6773,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E131" s="10">
         <v>12</v>
@@ -6372,16 +6790,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E132" s="10">
         <v>12</v>
@@ -6389,16 +6807,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E133" s="10">
         <v>12</v>
@@ -6406,16 +6824,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E134" s="10">
         <v>12</v>
@@ -6423,16 +6841,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E135" s="10">
         <v>12</v>
@@ -6440,16 +6858,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E136" s="10">
         <v>12</v>
@@ -6457,16 +6875,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E137" s="10">
         <v>12</v>
@@ -6474,16 +6892,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E138" s="10">
         <v>12</v>
@@ -6491,16 +6909,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E139" s="10">
         <v>12</v>
@@ -6508,16 +6926,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="C140" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E140" s="10">
         <v>12</v>
@@ -6525,16 +6943,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D141" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E141" s="10">
         <v>12</v>
@@ -6542,16 +6960,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B142" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D142" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E142" s="10">
         <v>12</v>
@@ -6559,16 +6977,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B143" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D143" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E143" s="10">
         <v>12</v>
@@ -6576,16 +6994,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E144" s="10">
         <v>12</v>
@@ -6593,16 +7011,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E145" s="10">
         <v>12</v>
@@ -6610,16 +7028,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E146" s="10">
         <v>12</v>
@@ -6627,16 +7045,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D147" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E147" s="10">
         <v>12</v>
@@ -6644,16 +7062,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E148" s="10">
         <v>12</v>
@@ -6661,16 +7079,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E149" s="10">
         <v>12</v>
@@ -6678,16 +7096,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E150" s="10">
         <v>12</v>
@@ -6695,16 +7113,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E151" s="10">
         <v>12</v>
@@ -6712,16 +7130,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B152" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D152" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E152" s="10">
         <v>12</v>
@@ -6729,16 +7147,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E153" s="10">
         <v>12</v>
@@ -6746,16 +7164,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E154" s="10">
         <v>12</v>
@@ -6763,16 +7181,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E155" s="10">
         <v>12</v>
@@ -6780,16 +7198,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E156" s="10">
         <v>12</v>
@@ -6797,16 +7215,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B157" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C157" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D157" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E157" s="10">
         <v>12</v>
@@ -6814,16 +7232,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E158" s="10">
         <v>12</v>
@@ -6831,16 +7249,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E159" s="10">
         <v>12</v>
@@ -6848,16 +7266,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E160" s="10">
         <v>12</v>
@@ -6865,16 +7283,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E161" s="10">
         <v>12</v>
@@ -6882,16 +7300,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B162" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C162" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D162" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E162" s="10">
         <v>12</v>
@@ -6899,16 +7317,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E163" s="10">
         <v>12</v>
@@ -6916,16 +7334,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E164" s="10">
         <v>12</v>
@@ -6933,16 +7351,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E165" s="10">
         <v>12</v>
@@ -6950,16 +7368,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E166" s="10">
         <v>12</v>
@@ -6967,16 +7385,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B167" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C167" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D167" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E167" s="10">
         <v>12</v>
@@ -6984,16 +7402,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E168" s="10">
         <v>12</v>
@@ -7001,16 +7419,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E169" s="10">
         <v>12</v>
@@ -7018,16 +7436,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E170" s="10">
         <v>12</v>
@@ -7035,16 +7453,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E171" s="10">
         <v>12</v>
@@ -7052,16 +7470,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B172" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C172" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D172" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E172" s="10">
         <v>12</v>
@@ -7069,16 +7487,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E173" s="10">
         <v>12</v>
@@ -7086,16 +7504,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E174" s="10">
         <v>12</v>
@@ -7103,16 +7521,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E175" s="10">
         <v>12</v>
@@ -7120,16 +7538,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E176" s="10">
         <v>12</v>
@@ -7137,16 +7555,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B177" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C177" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D177" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E177" s="10">
         <v>12</v>
@@ -7154,16 +7572,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E178" s="10">
         <v>12</v>
@@ -7171,16 +7589,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E179" s="10">
         <v>12</v>
@@ -7188,16 +7606,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E180" s="10">
         <v>12</v>
@@ -7205,16 +7623,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E181" s="10">
         <v>12</v>
@@ -7222,16 +7640,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C182" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D182" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E182" s="10">
         <v>12</v>
@@ -7239,16 +7657,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E183" s="10">
         <v>12</v>
@@ -7256,16 +7674,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E184" s="10">
         <v>12</v>
@@ -7273,16 +7691,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E185" s="10">
         <v>12</v>
@@ -7290,16 +7708,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E186" s="10">
         <v>12</v>
@@ -7307,16 +7725,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C187" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D187" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E187" s="10">
         <v>12</v>
@@ -7324,16 +7742,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E188" s="10">
         <v>12</v>
@@ -7341,16 +7759,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E189" s="10">
         <v>12</v>
@@ -7358,16 +7776,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E190" s="10">
         <v>12</v>
@@ -7375,16 +7793,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E191" s="10">
         <v>12</v>
@@ -7392,16 +7810,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B192" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C192" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D192" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E192" s="10">
         <v>12</v>
@@ -7409,16 +7827,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E193" s="10">
         <v>12</v>
@@ -7426,16 +7844,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E194" s="10">
         <v>12</v>
@@ -7443,16 +7861,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E195" s="10">
         <v>12</v>
@@ -7460,16 +7878,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E196" s="10">
         <v>12</v>
@@ -7477,16 +7895,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B197" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C197" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D197" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E197" s="10">
         <v>12</v>
@@ -7494,16 +7912,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E198" s="10">
         <v>12</v>
@@ -7511,16 +7929,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E199" s="10">
         <v>12</v>
@@ -7528,16 +7946,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E200" s="10">
         <v>12</v>
@@ -7545,16 +7963,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E201" s="10">
         <v>12</v>
@@ -7562,16 +7980,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B202" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D202" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E202" s="10">
         <v>12</v>
@@ -7579,16 +7997,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E203" s="10">
         <v>12</v>
@@ -7596,16 +8014,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E204" s="10">
         <v>12</v>
@@ -7613,16 +8031,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E205" s="10">
         <v>12</v>
@@ -7630,16 +8048,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E206" s="10">
         <v>12</v>
@@ -7647,16 +8065,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E207" s="10">
         <v>12</v>
@@ -7664,16 +8082,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E208" s="10">
         <v>12</v>
@@ -7681,16 +8099,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B209" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C209" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D209" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E209" s="10">
         <v>12</v>
@@ -7698,16 +8116,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E210" s="10">
         <v>12</v>
@@ -7715,16 +8133,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B211" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D211" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E211" s="10">
         <v>12</v>
@@ -7732,16 +8150,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="B212" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>218</v>
-      </c>
       <c r="D212" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E212" s="10">
         <v>12</v>
@@ -7749,16 +8167,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="C213" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E213" s="10">
         <v>12</v>
@@ -7766,16 +8184,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E214" s="10">
         <v>12</v>
@@ -7783,16 +8201,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E215" s="10">
         <v>12</v>
@@ -7800,16 +8218,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E216" s="10">
         <v>12</v>
@@ -7817,16 +8235,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E217" s="10">
         <v>12</v>
@@ -7834,16 +8252,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E218" s="10">
         <v>12</v>
@@ -7851,16 +8269,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E219" s="10">
         <v>12</v>
@@ -7868,16 +8286,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E220" s="10">
         <v>12</v>
@@ -7885,16 +8303,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E221" s="10">
         <v>12</v>
@@ -7902,16 +8320,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E222" s="10">
         <v>12</v>
@@ -7919,16 +8337,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E223" s="10">
         <v>12</v>
@@ -7936,16 +8354,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E224" s="10">
         <v>12</v>
@@ -7953,16 +8371,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E225" s="10">
         <v>12</v>
@@ -7970,16 +8388,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E226" s="10">
         <v>12</v>
@@ -7987,16 +8405,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E227" s="10">
         <v>12</v>
@@ -8004,16 +8422,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E228" s="10">
         <v>12</v>
@@ -8021,16 +8439,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E229" s="10">
         <v>12</v>
@@ -8038,16 +8456,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E230" s="10">
         <v>12</v>
@@ -8055,16 +8473,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E231" s="10">
         <v>12</v>
@@ -8072,16 +8490,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E232" s="10">
         <v>12</v>
@@ -8089,16 +8507,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E233" s="10">
         <v>12</v>
@@ -8106,16 +8524,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E234" s="10">
         <v>12</v>
@@ -8123,16 +8541,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E235" s="10">
         <v>12</v>
@@ -8140,16 +8558,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E236" s="10">
         <v>12</v>
@@ -8157,16 +8575,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E237" s="10">
         <v>12</v>
@@ -8174,16 +8592,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E238" s="10">
         <v>12</v>
@@ -8191,16 +8609,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E239" s="10">
         <v>12</v>
@@ -8208,16 +8626,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E240" s="10">
         <v>12</v>
@@ -8225,16 +8643,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E241" s="10">
         <v>12</v>
@@ -8242,16 +8660,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E242" s="10">
         <v>12</v>
@@ -8259,16 +8677,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E243" s="10">
         <v>12</v>
@@ -8276,16 +8694,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E244" s="10">
         <v>12</v>
@@ -8293,16 +8711,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E245" s="10">
         <v>12</v>
@@ -8310,16 +8728,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E246" s="10">
         <v>12</v>
@@ -8327,16 +8745,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E247" s="10">
         <v>12</v>
@@ -8344,16 +8762,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E248" s="10">
         <v>12</v>
@@ -8361,16 +8779,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E249" s="10">
         <v>12</v>
@@ -8378,16 +8796,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E250" s="10">
         <v>12</v>
@@ -8395,16 +8813,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E251" s="10">
         <v>12</v>
@@ -8412,16 +8830,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E252" s="10">
         <v>12</v>
@@ -8429,16 +8847,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E253" s="10">
         <v>12</v>
@@ -8446,16 +8864,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E254" s="10">
         <v>12</v>
@@ -8463,16 +8881,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E255" s="10">
         <v>12</v>
@@ -8480,16 +8898,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E256" s="10">
         <v>12</v>
@@ -8497,16 +8915,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E257" s="10">
         <v>12</v>
@@ -8514,16 +8932,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E258" s="10">
         <v>12</v>
@@ -8531,16 +8949,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E259" s="10">
         <v>12</v>
@@ -8548,16 +8966,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E260" s="10">
         <v>12</v>
@@ -8565,16 +8983,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E261" s="10">
         <v>12</v>
@@ -8582,16 +9000,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E262" s="10">
         <v>12</v>
@@ -8599,16 +9017,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E263" s="10">
         <v>12</v>
@@ -8616,16 +9034,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E264" s="10">
         <v>12</v>
@@ -8633,16 +9051,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E265" s="10">
         <v>12</v>
@@ -8650,16 +9068,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E266" s="10">
         <v>12</v>
@@ -8667,16 +9085,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E267" s="10">
         <v>12</v>
@@ -8684,16 +9102,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E268" s="10">
         <v>12</v>
@@ -8701,16 +9119,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E269" s="10">
         <v>12</v>
@@ -8718,16 +9136,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E270" s="10">
         <v>12</v>
@@ -8735,16 +9153,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E271" s="10">
         <v>12</v>
@@ -8752,16 +9170,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E272" s="10">
         <v>12</v>
@@ -8769,16 +9187,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E273" s="10">
         <v>12</v>
@@ -8786,16 +9204,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E274" s="10">
         <v>12</v>
@@ -8803,16 +9221,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E275" s="10">
         <v>12</v>
@@ -8820,16 +9238,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E276" s="10">
         <v>12</v>
@@ -8837,16 +9255,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E277" s="10">
         <v>12</v>
@@ -8854,16 +9272,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E278" s="10">
         <v>12</v>
@@ -8871,16 +9289,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E279" s="10">
         <v>12</v>
@@ -8888,16 +9306,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E280" s="10">
         <v>12</v>
@@ -8905,16 +9323,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E281" s="10">
         <v>12</v>
@@ -8922,16 +9340,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E282" s="10">
         <v>12</v>
@@ -8939,16 +9357,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E283" s="10">
         <v>12</v>
@@ -8956,16 +9374,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E284" s="10">
         <v>12</v>
@@ -8973,16 +9391,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E285" s="10">
         <v>12</v>
@@ -8990,16 +9408,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E286" s="10">
         <v>12</v>
@@ -9007,16 +9425,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E287" s="10">
         <v>12</v>
@@ -9024,16 +9442,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E288" s="10">
         <v>12</v>
@@ -9041,16 +9459,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E289" s="10">
         <v>12</v>
@@ -9058,16 +9476,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E290" s="10">
         <v>12</v>
@@ -9075,16 +9493,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E291" s="10">
         <v>12</v>
@@ -9092,16 +9510,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E292" s="10">
         <v>12</v>
@@ -9109,16 +9527,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E293" s="10">
         <v>12</v>
@@ -9126,16 +9544,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E294" s="10">
         <v>12</v>
@@ -9143,16 +9561,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C295" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B295" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>232</v>
-      </c>
       <c r="D295" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E295" s="10">
         <v>12</v>
@@ -9160,16 +9578,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E296" s="10">
         <v>12</v>
@@ -9226,7 +9644,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9234,7 +9652,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9579,29 +9997,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>18.600000000000001</v>
       </c>
@@ -9614,8 +10042,14 @@
       <c r="D2" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>39.32</v>
       </c>
@@ -9628,8 +10062,14 @@
       <c r="D3" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>91.12</v>
       </c>
@@ -9642,8 +10082,14 @@
       <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>119.98</v>
       </c>
@@ -9656,8 +10102,14 @@
       <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>54.88</v>
       </c>
@@ -9670,8 +10122,14 @@
       <c r="D6" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>100.68</v>
       </c>
@@ -9684,8 +10142,14 @@
       <c r="D7" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>29.68</v>
       </c>
@@ -9698,8 +10162,14 @@
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>110.38</v>
       </c>
@@ -9710,6 +10180,12 @@
         <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9720,124 +10196,234 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" s="24">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>5</v>
       </c>
       <c r="B4" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>10</v>
       </c>
       <c r="B5" s="24">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" s="24">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>15</v>
       </c>
       <c r="B7" s="24">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>20</v>
       </c>
       <c r="B8" s="24">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>25</v>
       </c>
       <c r="B9" s="24">
         <v>0.47299999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>30</v>
       </c>
       <c r="B10" s="24">
         <v>0.65100000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>40</v>
       </c>
       <c r="B11" s="24">
         <v>1.0409999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>50</v>
       </c>
       <c r="B12" s="24">
         <v>1.319</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>60</v>
       </c>
       <c r="B13" s="24">
         <v>1.3320000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710491E-A0EF-499E-86A6-541375608FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2900BC-9914-4714-B4D4-CA7DB127CA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2900BC-9914-4714-B4D4-CA7DB127CA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C927A6-5441-464A-B3B2-79BFDA85F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="240">
   <si>
     <t>Форпик</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve"> Статический крен от ветра              </t>
@@ -1299,31 +1296,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1347,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,22 +1360,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -1409,19 +1406,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="19">
         <v>4.99</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>119</v>
@@ -1432,10 +1429,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
@@ -1455,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -1478,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
@@ -1501,10 +1498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
@@ -1524,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>111</v>
@@ -1547,7 +1544,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>111</v>
@@ -1570,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>111</v>
@@ -1593,19 +1590,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="19">
         <v>55.56</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>119</v>
@@ -1616,19 +1613,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>119</v>
@@ -1639,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>111</v>
@@ -1662,10 +1659,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -1685,19 +1682,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G15" t="s">
         <v>119</v>
@@ -1708,19 +1705,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>119</v>
@@ -1731,10 +1728,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
@@ -1754,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>111</v>
@@ -1781,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>79</v>
@@ -1810,15 +1807,15 @@
         <v>107</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1831,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="19">
         <v>10960.742</v>
@@ -1851,7 +1848,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>111</v>
@@ -1871,7 +1868,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>111</v>
@@ -1891,10 +1888,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="19">
         <v>5.8029999999999999</v>
@@ -1911,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>111</v>
@@ -1940,7 +1937,7 @@
         <v>1E-3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="10">
         <v>0.05</v>
@@ -1948,7 +1945,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1961,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>111</v>
@@ -1981,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>111</v>
@@ -2001,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>111</v>
@@ -2021,10 +2018,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -2041,10 +2038,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="19">
         <v>6.3E-2</v>
@@ -2061,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>111</v>
@@ -2081,7 +2078,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>111</v>
@@ -2101,7 +2098,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>111</v>
@@ -2121,7 +2118,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>111</v>
@@ -2141,7 +2138,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>111</v>
@@ -2161,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>111</v>
@@ -2181,7 +2178,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>111</v>
@@ -2201,7 +2198,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>111</v>
@@ -2221,7 +2218,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>111</v>
@@ -2241,7 +2238,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>111</v>
@@ -2261,7 +2258,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>111</v>
@@ -2281,7 +2278,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>111</v>
@@ -2301,7 +2298,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>111</v>
@@ -2321,7 +2318,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>111</v>
@@ -2341,7 +2338,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>111</v>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -2371,10 +2368,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="19">
         <v>18.763000000000002</v>
@@ -2391,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -2411,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="19">
         <v>159.28200000000001</v>
@@ -2431,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>111</v>
@@ -2511,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>111</v>
@@ -2533,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>111</v>
@@ -2697,7 +2694,7 @@
         <v>89</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -2717,7 +2714,7 @@
         <v>90</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
@@ -2798,7 +2795,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="19">
         <v>4.99</v>
@@ -2818,7 +2815,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
@@ -2838,7 +2835,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2858,7 +2855,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
@@ -2878,7 +2875,7 @@
         <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
@@ -2898,7 +2895,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
@@ -2918,7 +2915,7 @@
         <v>100</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
@@ -2938,7 +2935,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
@@ -2958,7 +2955,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
@@ -2978,7 +2975,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2998,7 +2995,7 @@
         <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -3018,7 +3015,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -3038,7 +3035,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -3064,7 +3061,7 @@
         <v>54</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" s="10">
         <v>0.05</v>
@@ -3154,7 +3151,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3173,7 +3170,7 @@
         <v>168.91300000000001</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,7 +3187,7 @@
         <v>135.66499999999999</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3204,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,7 +3221,7 @@
         <v>71.417000000000002</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,7 +3238,7 @@
         <v>240.21899999999999</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,7 +3272,7 @@
         <v>84.581000000000003</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,7 +3289,7 @@
         <v>84.578999999999994</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3306,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,7 +3323,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3340,7 @@
         <v>109.261</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,7 +3357,7 @@
         <v>109.261</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,7 +3374,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3391,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,7 +3408,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>164.65700000000001</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,7 +3442,7 @@
         <v>280</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>390.197</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
         <v>265.702</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,7 +3493,7 @@
         <v>265.702</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,7 +3510,7 @@
         <v>217.238</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3527,7 @@
         <v>217.238</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,7 +3544,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,7 +3578,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3615,7 +3612,7 @@
         <v>11.227</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,7 +3629,7 @@
         <v>11.227</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,7 +3646,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,7 +3663,7 @@
         <v>56.104999999999997</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,7 +3697,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3731,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,7 +3748,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,7 +3799,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,7 +3850,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,7 +3867,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,7 +3884,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3955,7 +3952,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3972,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3989,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,7 +4003,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,7 +4020,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4040,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4149,16 +4146,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -4167,16 +4164,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4563,33 +4560,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="D1" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="C2" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="10">
         <v>12</v>
@@ -4597,16 +4594,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="10">
         <v>12</v>
@@ -4614,16 +4611,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="10">
         <v>12</v>
@@ -4631,16 +4628,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="10">
         <v>12</v>
@@ -4648,16 +4645,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="10">
         <v>12</v>
@@ -4665,16 +4662,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="10">
         <v>12</v>
@@ -4682,16 +4679,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="10">
         <v>12</v>
@@ -4699,16 +4696,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="10">
         <v>12</v>
@@ -4716,16 +4713,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="10">
         <v>12</v>
@@ -4733,16 +4730,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="10">
         <v>12</v>
@@ -4750,16 +4747,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="10">
         <v>12</v>
@@ -4767,16 +4764,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="10">
         <v>12</v>
@@ -4784,16 +4781,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="10">
         <v>12</v>
@@ -4801,16 +4798,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="10">
         <v>12</v>
@@ -4818,16 +4815,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="10">
         <v>12</v>
@@ -4835,16 +4832,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="10">
         <v>12</v>
@@ -4852,16 +4849,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="10">
         <v>12</v>
@@ -4869,16 +4866,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" s="10">
         <v>12</v>
@@ -4886,16 +4883,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="10">
         <v>12</v>
@@ -4903,16 +4900,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="10">
         <v>12</v>
@@ -4920,16 +4917,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="10">
         <v>12</v>
@@ -4937,16 +4934,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="10">
         <v>12</v>
@@ -4954,16 +4951,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" s="10">
         <v>12</v>
@@ -4971,16 +4968,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="10">
         <v>12</v>
@@ -4988,16 +4985,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="10">
         <v>12</v>
@@ -5005,16 +5002,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E27" s="10">
         <v>12</v>
@@ -5022,16 +5019,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28" s="10">
         <v>12</v>
@@ -5039,16 +5036,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" s="10">
         <v>12</v>
@@ -5056,16 +5053,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E30" s="10">
         <v>12</v>
@@ -5073,16 +5070,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E31" s="10">
         <v>12</v>
@@ -5090,16 +5087,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E32" s="10">
         <v>12</v>
@@ -5107,16 +5104,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E33" s="10">
         <v>12</v>
@@ -5124,16 +5121,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="10">
         <v>12</v>
@@ -5141,16 +5138,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="10">
         <v>12</v>
@@ -5158,16 +5155,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="10">
         <v>12</v>
@@ -5175,16 +5172,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="10">
         <v>12</v>
@@ -5192,16 +5189,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="10">
         <v>12</v>
@@ -5209,16 +5206,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="10">
         <v>12</v>
@@ -5226,16 +5223,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40" s="10">
         <v>12</v>
@@ -5243,16 +5240,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="10">
         <v>12</v>
@@ -5260,16 +5257,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E42" s="10">
         <v>12</v>
@@ -5277,16 +5274,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E43" s="10">
         <v>12</v>
@@ -5294,16 +5291,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E44" s="10">
         <v>12</v>
@@ -5311,16 +5308,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="10">
         <v>12</v>
@@ -5328,16 +5325,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E46" s="10">
         <v>12</v>
@@ -5345,16 +5342,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" s="10">
         <v>12</v>
@@ -5362,16 +5359,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E48" s="10">
         <v>12</v>
@@ -5379,16 +5376,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" s="10">
         <v>12</v>
@@ -5396,16 +5393,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="10">
         <v>12</v>
@@ -5413,16 +5410,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E51" s="10">
         <v>12</v>
@@ -5430,16 +5427,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E52" s="10">
         <v>12</v>
@@ -5447,16 +5444,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E53" s="10">
         <v>12</v>
@@ -5464,16 +5461,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E54" s="10">
         <v>12</v>
@@ -5481,16 +5478,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E55" s="10">
         <v>12</v>
@@ -5498,16 +5495,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="10">
         <v>12</v>
@@ -5515,16 +5512,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E57" s="10">
         <v>12</v>
@@ -5532,16 +5529,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="10">
         <v>12</v>
@@ -5549,16 +5546,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" s="10">
         <v>12</v>
@@ -5566,16 +5563,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E60" s="10">
         <v>12</v>
@@ -5583,16 +5580,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E61" s="10">
         <v>12</v>
@@ -5600,16 +5597,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E62" s="10">
         <v>12</v>
@@ -5617,16 +5614,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="10">
         <v>12</v>
@@ -5634,16 +5631,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="10">
         <v>12</v>
@@ -5651,16 +5648,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" s="10">
         <v>12</v>
@@ -5668,16 +5665,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E66" s="10">
         <v>12</v>
@@ -5685,16 +5682,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" s="10">
         <v>12</v>
@@ -5702,16 +5699,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E68" s="10">
         <v>12</v>
@@ -5719,16 +5716,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="C69" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" s="10">
         <v>12</v>
@@ -5736,16 +5733,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E70" s="10">
         <v>12</v>
@@ -5753,16 +5750,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E71" s="10">
         <v>12</v>
@@ -5770,16 +5767,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E72" s="10">
         <v>12</v>
@@ -5787,16 +5784,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73" s="10">
         <v>12</v>
@@ -5804,16 +5801,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74" s="10">
         <v>12</v>
@@ -5821,16 +5818,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="10">
         <v>12</v>
@@ -5838,16 +5835,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76" s="10">
         <v>12</v>
@@ -5855,16 +5852,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="10">
         <v>12</v>
@@ -5872,16 +5869,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E78" s="10">
         <v>12</v>
@@ -5889,16 +5886,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E79" s="10">
         <v>12</v>
@@ -5906,16 +5903,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E80" s="10">
         <v>12</v>
@@ -5923,16 +5920,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E81" s="10">
         <v>12</v>
@@ -5940,16 +5937,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E82" s="10">
         <v>12</v>
@@ -5957,16 +5954,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E83" s="10">
         <v>12</v>
@@ -5974,16 +5971,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E84" s="10">
         <v>12</v>
@@ -5991,16 +5988,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" s="10">
         <v>12</v>
@@ -6008,16 +6005,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="10">
         <v>12</v>
@@ -6025,16 +6022,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="10">
         <v>12</v>
@@ -6042,16 +6039,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" s="10">
         <v>12</v>
@@ -6059,16 +6056,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E89" s="10">
         <v>12</v>
@@ -6076,16 +6073,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E90" s="10">
         <v>12</v>
@@ -6093,16 +6090,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="10">
         <v>12</v>
@@ -6110,16 +6107,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="10">
         <v>12</v>
@@ -6127,16 +6124,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E93" s="10">
         <v>12</v>
@@ -6144,16 +6141,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E94" s="10">
         <v>12</v>
@@ -6161,16 +6158,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E95" s="10">
         <v>12</v>
@@ -6178,16 +6175,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E96" s="10">
         <v>12</v>
@@ -6195,16 +6192,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E97" s="10">
         <v>12</v>
@@ -6212,16 +6209,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E98" s="10">
         <v>12</v>
@@ -6229,16 +6226,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E99" s="10">
         <v>12</v>
@@ -6246,16 +6243,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E100" s="10">
         <v>12</v>
@@ -6263,16 +6260,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E101" s="10">
         <v>12</v>
@@ -6280,16 +6277,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E102" s="10">
         <v>12</v>
@@ -6297,16 +6294,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E103" s="10">
         <v>12</v>
@@ -6314,16 +6311,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E104" s="10">
         <v>12</v>
@@ -6331,16 +6328,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E105" s="10">
         <v>12</v>
@@ -6348,16 +6345,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E106" s="10">
         <v>12</v>
@@ -6365,16 +6362,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="10">
         <v>12</v>
@@ -6382,16 +6379,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108" s="10">
         <v>12</v>
@@ -6399,16 +6396,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E109" s="10">
         <v>12</v>
@@ -6416,16 +6413,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E110" s="10">
         <v>12</v>
@@ -6433,16 +6430,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E111" s="10">
         <v>12</v>
@@ -6450,16 +6447,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E112" s="10">
         <v>12</v>
@@ -6467,16 +6464,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E113" s="10">
         <v>12</v>
@@ -6484,16 +6481,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E114" s="10">
         <v>12</v>
@@ -6501,16 +6498,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" s="10">
         <v>12</v>
@@ -6518,16 +6515,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E116" s="10">
         <v>12</v>
@@ -6535,16 +6532,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117" s="10">
         <v>12</v>
@@ -6552,16 +6549,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" s="10">
         <v>12</v>
@@ -6569,16 +6566,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E119" s="10">
         <v>12</v>
@@ -6586,16 +6583,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E120" s="10">
         <v>12</v>
@@ -6603,16 +6600,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E121" s="10">
         <v>12</v>
@@ -6620,16 +6617,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E122" s="10">
         <v>12</v>
@@ -6637,16 +6634,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E123" s="10">
         <v>12</v>
@@ -6654,16 +6651,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E124" s="10">
         <v>12</v>
@@ -6671,16 +6668,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E125" s="10">
         <v>12</v>
@@ -6688,16 +6685,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E126" s="10">
         <v>12</v>
@@ -6705,16 +6702,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E127" s="10">
         <v>12</v>
@@ -6722,16 +6719,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E128" s="10">
         <v>12</v>
@@ -6739,16 +6736,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E129" s="10">
         <v>12</v>
@@ -6756,16 +6753,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" s="10">
         <v>12</v>
@@ -6773,16 +6770,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E131" s="10">
         <v>12</v>
@@ -6790,16 +6787,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E132" s="10">
         <v>12</v>
@@ -6807,16 +6804,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E133" s="10">
         <v>12</v>
@@ -6824,16 +6821,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E134" s="10">
         <v>12</v>
@@ -6841,16 +6838,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E135" s="10">
         <v>12</v>
@@ -6858,16 +6855,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E136" s="10">
         <v>12</v>
@@ -6875,16 +6872,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E137" s="10">
         <v>12</v>
@@ -6892,16 +6889,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E138" s="10">
         <v>12</v>
@@ -6909,16 +6906,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E139" s="10">
         <v>12</v>
@@ -6926,16 +6923,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="C140" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E140" s="10">
         <v>12</v>
@@ -6943,16 +6940,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D141" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E141" s="10">
         <v>12</v>
@@ -6960,16 +6957,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B142" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C142" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D142" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E142" s="10">
         <v>12</v>
@@ -6977,16 +6974,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B143" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D143" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E143" s="10">
         <v>12</v>
@@ -6994,16 +6991,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E144" s="10">
         <v>12</v>
@@ -7011,16 +7008,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E145" s="10">
         <v>12</v>
@@ -7028,16 +7025,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146" s="10">
         <v>12</v>
@@ -7045,16 +7042,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D147" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E147" s="10">
         <v>12</v>
@@ -7062,16 +7059,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E148" s="10">
         <v>12</v>
@@ -7079,16 +7076,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E149" s="10">
         <v>12</v>
@@ -7096,16 +7093,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E150" s="10">
         <v>12</v>
@@ -7113,16 +7110,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E151" s="10">
         <v>12</v>
@@ -7130,16 +7127,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D152" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E152" s="10">
         <v>12</v>
@@ -7147,16 +7144,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E153" s="10">
         <v>12</v>
@@ -7164,16 +7161,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E154" s="10">
         <v>12</v>
@@ -7181,16 +7178,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E155" s="10">
         <v>12</v>
@@ -7198,16 +7195,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E156" s="10">
         <v>12</v>
@@ -7215,16 +7212,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B157" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C157" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C157" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D157" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E157" s="10">
         <v>12</v>
@@ -7232,16 +7229,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E158" s="10">
         <v>12</v>
@@ -7249,16 +7246,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E159" s="10">
         <v>12</v>
@@ -7266,16 +7263,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E160" s="10">
         <v>12</v>
@@ -7283,16 +7280,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E161" s="10">
         <v>12</v>
@@ -7300,16 +7297,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B162" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C162" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D162" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E162" s="10">
         <v>12</v>
@@ -7317,16 +7314,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E163" s="10">
         <v>12</v>
@@ -7334,16 +7331,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E164" s="10">
         <v>12</v>
@@ -7351,16 +7348,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E165" s="10">
         <v>12</v>
@@ -7368,16 +7365,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E166" s="10">
         <v>12</v>
@@ -7385,16 +7382,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B167" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D167" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E167" s="10">
         <v>12</v>
@@ -7402,16 +7399,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E168" s="10">
         <v>12</v>
@@ -7419,16 +7416,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E169" s="10">
         <v>12</v>
@@ -7436,16 +7433,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E170" s="10">
         <v>12</v>
@@ -7453,16 +7450,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E171" s="10">
         <v>12</v>
@@ -7470,16 +7467,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C172" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D172" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E172" s="10">
         <v>12</v>
@@ -7487,16 +7484,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E173" s="10">
         <v>12</v>
@@ -7504,16 +7501,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E174" s="10">
         <v>12</v>
@@ -7521,16 +7518,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E175" s="10">
         <v>12</v>
@@ -7538,16 +7535,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E176" s="10">
         <v>12</v>
@@ -7555,16 +7552,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B177" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C177" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C177" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D177" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177" s="10">
         <v>12</v>
@@ -7572,16 +7569,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E178" s="10">
         <v>12</v>
@@ -7589,16 +7586,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E179" s="10">
         <v>12</v>
@@ -7606,16 +7603,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E180" s="10">
         <v>12</v>
@@ -7623,16 +7620,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E181" s="10">
         <v>12</v>
@@ -7640,16 +7637,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C182" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D182" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E182" s="10">
         <v>12</v>
@@ -7657,16 +7654,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E183" s="10">
         <v>12</v>
@@ -7674,16 +7671,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E184" s="10">
         <v>12</v>
@@ -7691,16 +7688,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E185" s="10">
         <v>12</v>
@@ -7708,16 +7705,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E186" s="10">
         <v>12</v>
@@ -7725,16 +7722,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B187" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C187" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D187" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E187" s="10">
         <v>12</v>
@@ -7742,16 +7739,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E188" s="10">
         <v>12</v>
@@ -7759,16 +7756,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E189" s="10">
         <v>12</v>
@@ -7776,16 +7773,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E190" s="10">
         <v>12</v>
@@ -7793,16 +7790,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E191" s="10">
         <v>12</v>
@@ -7810,16 +7807,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B192" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C192" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D192" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E192" s="10">
         <v>12</v>
@@ -7827,16 +7824,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E193" s="10">
         <v>12</v>
@@ -7844,16 +7841,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E194" s="10">
         <v>12</v>
@@ -7861,16 +7858,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E195" s="10">
         <v>12</v>
@@ -7878,16 +7875,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E196" s="10">
         <v>12</v>
@@ -7895,16 +7892,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B197" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C197" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C197" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D197" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E197" s="10">
         <v>12</v>
@@ -7912,16 +7909,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E198" s="10">
         <v>12</v>
@@ -7929,16 +7926,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E199" s="10">
         <v>12</v>
@@ -7946,16 +7943,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E200" s="10">
         <v>12</v>
@@ -7963,16 +7960,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E201" s="10">
         <v>12</v>
@@ -7980,16 +7977,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B202" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D202" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E202" s="10">
         <v>12</v>
@@ -7997,16 +7994,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E203" s="10">
         <v>12</v>
@@ -8014,16 +8011,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E204" s="10">
         <v>12</v>
@@ -8031,16 +8028,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E205" s="10">
         <v>12</v>
@@ -8048,16 +8045,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E206" s="10">
         <v>12</v>
@@ -8065,16 +8062,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E207" s="10">
         <v>12</v>
@@ -8082,16 +8079,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E208" s="10">
         <v>12</v>
@@ -8099,16 +8096,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B209" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C209" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D209" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E209" s="10">
         <v>12</v>
@@ -8116,16 +8113,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210" s="10">
         <v>12</v>
@@ -8133,16 +8130,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B211" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D211" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E211" s="10">
         <v>12</v>
@@ -8150,16 +8147,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="D212" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E212" s="10">
         <v>12</v>
@@ -8167,16 +8164,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="C213" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E213" s="10">
         <v>12</v>
@@ -8184,16 +8181,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E214" s="10">
         <v>12</v>
@@ -8201,16 +8198,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E215" s="10">
         <v>12</v>
@@ -8218,16 +8215,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E216" s="10">
         <v>12</v>
@@ -8235,16 +8232,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E217" s="10">
         <v>12</v>
@@ -8252,16 +8249,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E218" s="10">
         <v>12</v>
@@ -8269,16 +8266,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E219" s="10">
         <v>12</v>
@@ -8286,16 +8283,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E220" s="10">
         <v>12</v>
@@ -8303,16 +8300,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E221" s="10">
         <v>12</v>
@@ -8320,16 +8317,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E222" s="10">
         <v>12</v>
@@ -8337,16 +8334,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E223" s="10">
         <v>12</v>
@@ -8354,16 +8351,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E224" s="10">
         <v>12</v>
@@ -8371,16 +8368,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E225" s="10">
         <v>12</v>
@@ -8388,16 +8385,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E226" s="10">
         <v>12</v>
@@ -8405,16 +8402,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E227" s="10">
         <v>12</v>
@@ -8422,16 +8419,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228" s="10">
         <v>12</v>
@@ -8439,16 +8436,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E229" s="10">
         <v>12</v>
@@ -8456,16 +8453,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E230" s="10">
         <v>12</v>
@@ -8473,16 +8470,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E231" s="10">
         <v>12</v>
@@ -8490,16 +8487,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E232" s="10">
         <v>12</v>
@@ -8507,16 +8504,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E233" s="10">
         <v>12</v>
@@ -8524,16 +8521,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E234" s="10">
         <v>12</v>
@@ -8541,16 +8538,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E235" s="10">
         <v>12</v>
@@ -8558,16 +8555,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E236" s="10">
         <v>12</v>
@@ -8575,16 +8572,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E237" s="10">
         <v>12</v>
@@ -8592,16 +8589,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E238" s="10">
         <v>12</v>
@@ -8609,16 +8606,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E239" s="10">
         <v>12</v>
@@ -8626,16 +8623,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E240" s="10">
         <v>12</v>
@@ -8643,16 +8640,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E241" s="10">
         <v>12</v>
@@ -8660,16 +8657,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E242" s="10">
         <v>12</v>
@@ -8677,16 +8674,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E243" s="10">
         <v>12</v>
@@ -8694,16 +8691,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E244" s="10">
         <v>12</v>
@@ -8711,16 +8708,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E245" s="10">
         <v>12</v>
@@ -8728,16 +8725,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E246" s="10">
         <v>12</v>
@@ -8745,16 +8742,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E247" s="10">
         <v>12</v>
@@ -8762,16 +8759,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E248" s="10">
         <v>12</v>
@@ -8779,16 +8776,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E249" s="10">
         <v>12</v>
@@ -8796,16 +8793,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E250" s="10">
         <v>12</v>
@@ -8813,16 +8810,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E251" s="10">
         <v>12</v>
@@ -8830,16 +8827,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E252" s="10">
         <v>12</v>
@@ -8847,16 +8844,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E253" s="10">
         <v>12</v>
@@ -8864,16 +8861,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E254" s="10">
         <v>12</v>
@@ -8881,16 +8878,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E255" s="10">
         <v>12</v>
@@ -8898,16 +8895,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E256" s="10">
         <v>12</v>
@@ -8915,16 +8912,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D257" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E257" s="10">
         <v>12</v>
@@ -8932,16 +8929,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D258" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E258" s="10">
         <v>12</v>
@@ -8949,16 +8946,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E259" s="10">
         <v>12</v>
@@ -8966,16 +8963,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E260" s="10">
         <v>12</v>
@@ -8983,16 +8980,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D261" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E261" s="10">
         <v>12</v>
@@ -9000,16 +8997,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D262" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E262" s="10">
         <v>12</v>
@@ -9017,16 +9014,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E263" s="10">
         <v>12</v>
@@ -9034,16 +9031,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E264" s="10">
         <v>12</v>
@@ -9051,16 +9048,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E265" s="10">
         <v>12</v>
@@ -9068,16 +9065,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D266" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E266" s="10">
         <v>12</v>
@@ -9085,16 +9082,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D267" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E267" s="10">
         <v>12</v>
@@ -9102,16 +9099,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D268" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E268" s="10">
         <v>12</v>
@@ -9119,16 +9116,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D269" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E269" s="10">
         <v>12</v>
@@ -9136,16 +9133,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E270" s="10">
         <v>12</v>
@@ -9153,16 +9150,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D271" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E271" s="10">
         <v>12</v>
@@ -9170,16 +9167,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E272" s="10">
         <v>12</v>
@@ -9187,16 +9184,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D273" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E273" s="10">
         <v>12</v>
@@ -9204,16 +9201,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D274" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E274" s="10">
         <v>12</v>
@@ -9221,16 +9218,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E275" s="10">
         <v>12</v>
@@ -9238,16 +9235,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D276" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E276" s="10">
         <v>12</v>
@@ -9255,16 +9252,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D277" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E277" s="10">
         <v>12</v>
@@ -9272,16 +9269,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D278" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E278" s="10">
         <v>12</v>
@@ -9289,16 +9286,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D279" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E279" s="10">
         <v>12</v>
@@ -9306,16 +9303,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E280" s="10">
         <v>12</v>
@@ -9323,16 +9320,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E281" s="10">
         <v>12</v>
@@ -9340,16 +9337,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E282" s="10">
         <v>12</v>
@@ -9357,16 +9354,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E283" s="10">
         <v>12</v>
@@ -9374,16 +9371,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E284" s="10">
         <v>12</v>
@@ -9391,16 +9388,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E285" s="10">
         <v>12</v>
@@ -9408,16 +9405,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E286" s="10">
         <v>12</v>
@@ -9425,16 +9422,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E287" s="10">
         <v>12</v>
@@ -9442,16 +9439,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D288" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E288" s="10">
         <v>12</v>
@@ -9459,16 +9456,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E289" s="10">
         <v>12</v>
@@ -9476,16 +9473,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E290" s="10">
         <v>12</v>
@@ -9493,16 +9490,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E291" s="10">
         <v>12</v>
@@ -9510,16 +9507,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E292" s="10">
         <v>12</v>
@@ -9527,16 +9524,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D293" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E293" s="10">
         <v>12</v>
@@ -9544,16 +9541,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E294" s="10">
         <v>12</v>
@@ -9561,16 +9558,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C295" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B295" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C295" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="D295" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E295" s="10">
         <v>12</v>
@@ -9578,16 +9575,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E296" s="10">
         <v>12</v>
@@ -9644,7 +9641,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9652,7 +9649,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10011,22 +10008,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="E1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10218,10 +10215,10 @@
         <v>116</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C927A6-5441-464A-B3B2-79BFDA85F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004E19B-D5E8-4C8F-956C-CB247F58AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="241">
   <si>
     <t>Форпик</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Наименование</t>
+  </si>
+  <si>
+    <t>Поправка к поперечной метацентрической высоте</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1776,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3105,6 +3108,27 @@
       </c>
       <c r="F67" s="10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="24">
+        <f>D38+D39</f>
+        <v>6.8928727635410086E-3</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004E19B-D5E8-4C8F-956C-CB247F58AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA694B56-BD55-4463-A495-FCC6E053E6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="241">
   <si>
     <t>Форпик</t>
   </si>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2520,8 +2520,8 @@
         <f>68.928/D3</f>
         <v>6.2886253503640537E-3</v>
       </c>
-      <c r="E38" s="10">
-        <v>2</v>
+      <c r="E38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -2542,8 +2542,8 @@
         <f>6.623/D3</f>
         <v>6.0424741317695459E-4</v>
       </c>
-      <c r="E39" s="10">
-        <v>2</v>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA694B56-BD55-4463-A495-FCC6E053E6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA445A-74C7-4AC4-8FB9-1D09BF9DDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="241">
   <si>
     <t>Форпик</t>
   </si>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -4159,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7A2BB-640B-4F69-A8C8-D316349120B8}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4201,39 +4201,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EA445A-74C7-4AC4-8FB9-1D09BF9DDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C205B157-73CA-4F84-B919-70EE5B235C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -3146,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,7 +3568,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,7 +3721,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,7 +3755,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7A2BB-640B-4F69-A8C8-D316349120B8}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C205B157-73CA-4F84-B919-70EE5B235C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50DC5A-0EDC-432B-B94B-9D8369693BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="241">
   <si>
     <t>Форпик</t>
   </si>
@@ -863,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -946,6 +946,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1759,8 +1765,8 @@
       <c r="C18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>54</v>
+      <c r="D18" s="19">
+        <v>0.74399999999999999</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -1782,7 +1788,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3146,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,13 +3567,13 @@
       <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="30">
         <v>0.97</v>
       </c>
-      <c r="D24" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="31">
+        <v>6.56</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3578,13 +3584,13 @@
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="30">
         <v>0.97</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="31">
         <v>15</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3595,13 +3601,13 @@
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="30">
         <v>0.97</v>
       </c>
-      <c r="D26" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="31">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3612,13 +3618,13 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="30">
         <v>0.97</v>
       </c>
-      <c r="D27" s="13">
-        <v>10</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="31">
+        <v>9.952</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3691,36 +3697,36 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="3">
         <v>301</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="30">
         <v>0.97</v>
       </c>
-      <c r="D32" s="13">
-        <v>2</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="31">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="3">
         <v>302</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="30">
         <v>0.97</v>
       </c>
-      <c r="D33" s="13">
-        <v>17</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="31">
+        <v>17.032</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3731,13 +3737,13 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="30">
         <v>0.97</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="31">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3748,13 +3754,13 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="30">
         <v>0.85</v>
       </c>
-      <c r="D35" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="31">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3765,13 +3771,13 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="30">
         <v>0.85</v>
       </c>
-      <c r="D36" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="31">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3782,13 +3788,13 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="30">
         <v>0.85</v>
       </c>
-      <c r="D37" s="13">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="31">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3799,13 +3805,13 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="30">
         <v>0.85</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3816,13 +3822,13 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="30">
         <v>0.9</v>
       </c>
-      <c r="D39" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="31">
+        <v>1.752</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3833,13 +3839,13 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="30">
         <v>0.9</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="31">
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3850,13 +3856,13 @@
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="30">
         <v>0.9</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="31">
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3867,13 +3873,13 @@
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="30">
         <v>0.9</v>
       </c>
-      <c r="D42" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="31">
+        <v>0.376</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3884,13 +3890,13 @@
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="30">
         <v>0.97</v>
       </c>
-      <c r="D43" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="31">
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3901,13 +3907,13 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="31">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3918,13 +3924,13 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="31">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3935,13 +3941,13 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="31">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3952,13 +3958,13 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="31">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3969,13 +3975,13 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="30">
         <v>1</v>
       </c>
-      <c r="D48" s="13">
-        <v>8.4</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="31">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3986,13 +3992,13 @@
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="13">
-        <v>6</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4003,13 +4009,13 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="30">
         <v>1</v>
       </c>
-      <c r="D50" s="13">
-        <v>6</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4020,13 +4026,13 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="30">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4037,13 +4043,13 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="30">
         <v>1</v>
       </c>
-      <c r="D52" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4054,13 +4060,13 @@
       <c r="B53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="30">
         <v>0</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="31">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="2" t="s">
         <v>191</v>
       </c>
     </row>
